--- a/Codelist Excel Files and Conversion Templates to XML/astmD5715.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/astmD5715.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8F8290-2AFD-AC49-B426-5425E873183F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7CA493-15C8-E246-A33E-4C2B3C10B025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12280" yWindow="8600" windowWidth="35840" windowHeight="20760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -764,9 +764,6 @@
     <t>gm</t>
   </si>
   <si>
-    <t>DIGGS Soil Classification Code List Definitions for Peat Soils (ASTM D5715)</t>
-  </si>
-  <si>
     <t>Classification codes for peat soils as defined by ASTM-D5715. These codes are used as values for the classificationCode property of the Lithology object.</t>
   </si>
   <si>
@@ -901,6 +898,9 @@
   </si>
   <si>
     <t>astmD5715</t>
+  </si>
+  <si>
+    <t>DIGGS Soil Classification Definitions for Peat Soils (ASTM D5715)</t>
   </si>
 </sst>
 </file>
@@ -1612,7 +1612,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1650,18 +1650,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -1727,22 +1727,22 @@
         <v/>
       </c>
       <c r="B2" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>244</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>245</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -1751,22 +1751,22 @@
         <v/>
       </c>
       <c r="B3" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>247</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>248</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -1775,22 +1775,22 @@
         <v/>
       </c>
       <c r="B4" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>251</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -1799,22 +1799,22 @@
         <v/>
       </c>
       <c r="B5" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>253</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>254</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="80" x14ac:dyDescent="0.2">
@@ -1823,22 +1823,22 @@
         <v/>
       </c>
       <c r="B6" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>256</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>257</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -1847,22 +1847,22 @@
         <v/>
       </c>
       <c r="B7" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>259</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>260</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -1871,22 +1871,22 @@
         <v/>
       </c>
       <c r="B8" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>262</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>263</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -1895,22 +1895,22 @@
         <v/>
       </c>
       <c r="B9" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>265</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>266</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -1919,22 +1919,22 @@
         <v/>
       </c>
       <c r="B10" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="14" t="s">
         <v>268</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>269</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -1943,22 +1943,22 @@
         <v/>
       </c>
       <c r="B11" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>271</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>272</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2102,10 +2102,10 @@
         <v/>
       </c>
       <c r="B8" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2114,10 +2114,10 @@
         <v/>
       </c>
       <c r="B9" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2126,10 +2126,10 @@
         <v/>
       </c>
       <c r="B10" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2138,10 +2138,10 @@
         <v/>
       </c>
       <c r="B11" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2150,10 +2150,10 @@
         <v/>
       </c>
       <c r="B12" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2162,10 +2162,10 @@
         <v/>
       </c>
       <c r="B13" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2174,10 +2174,10 @@
         <v/>
       </c>
       <c r="B14" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2186,10 +2186,10 @@
         <v/>
       </c>
       <c r="B15" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2198,10 +2198,10 @@
         <v/>
       </c>
       <c r="B16" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2210,10 +2210,10 @@
         <v/>
       </c>
       <c r="B17" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/astmD5715.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/astmD5715.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7CA493-15C8-E246-A33E-4C2B3C10B025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84373FA4-1783-694B-805F-3520F8176D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12280" yWindow="8600" windowWidth="35840" windowHeight="20760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="36540" windowHeight="18580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -1611,8 +1611,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1678,7 +1678,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
